--- a/artifacts/recipes/new_data/allrecipescom/chineese/chineese_appetizers.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/chineese/chineese_appetizers.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641135-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Chinese Appetizers</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641141-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CChB81V-kLe5DzeAjJJjTyEG-78=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2063x0:2065x2):format(webp)/4497549-6e7c5da670cb4f8785f0528ecaf8a58c.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/160400/tea-leaf-eggs/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Tea Leaf Eggs</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 2 hrs 45 mins\n\n\nTotal Time:\n 2 hrs 55 mins\n\n\nServings:\n10 \n\n\nYield:\n10 eggs"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon black tea leaves\n\n\n2 (3 inch) cinnamon sticks\n\n\n4  whole star anise pods\n\n\n1 tablespoon five-spice powder\n\n\n6  whole cloves\n\n\n1 slice fresh ginger root\n\n\n½ teaspoon Szechuan peppercorns\n\n\n1 teaspoon licorice root\n\n\n1  piece dried mandarin orange peel\n\n\n1 ounce Chinese rock sugar\n\n\n½ cup dark soy sauce\n\n\n⅓ cup light-colored soy sauce\n\n\n10  hard-cooked eggs"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon black tea leaves\n\n\n2 (3 inch) cinnamon sticks\n\n\n4  whole star anise pods\n\n\n1 tablespoon five-spice powder\n\n\n6  whole cloves\n\n\n1 slice fresh ginger root\n\n\n½ teaspoon Szechuan peppercorns\n\n\n1 teaspoon licorice root\n\n\n1  piece dried mandarin orange peel\n\n\n1 ounce Chinese rock sugar\n\n\n½ cup dark soy sauce\n\n\n⅓ cup light-colored soy sauce\n\n\n10  hard-cooked eggs'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the tea, cinnamon, star anise, five-spice, cloves, ginger, peppercorns, licorice, orange peel, rock sugar, dark soy sauce, and light soy sauce in a large saucepan. Bring to a boil, then reduce heat to medium-low, and let simmer for 15 minutes. Meanwhile, lightly tap the hard-cooked eggs to crack the shells all over. The soy sauce will penetrate the cracks, and color the egg white."},{"recipe_directions":"Place the eggs in the simmering liquid, and cook for 30 minutes, then remove from the heat, and let the eggs stand in the liquid for 2 hours off the heat. After 2 hours, drain the eggs, chill, and peel."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"98\nCalories\n\n\n6g \nFat\n\n\n6g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641153-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/odHYwlfyyl2w65mE7trJYk2bMM0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/4547698-0966b47e492341fea6b7b3e47fb8ee21.jpg"
@@ -266,59 +603,55 @@
 Golden Sesame Balls</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284414/golden-sesame-balls/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Golden Sesame Balls</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 sesame balls"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ounce white sugar\n\n\n⅓ ounce shortening\n\n\n3 ounces glutinous rice flour\n\n\n½ teaspoon baking powder\n\n\n2 ounces ice cold water\n\n\n½ cup white sesame seeds\n\n\n  4 ounces white lotus paste\n\n\n2 cups vegetable oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ounce white sugar\n\n\n⅓ ounce shortening\n\n\n3 ounces glutinous rice flour\n\n\n½ teaspoon baking powder\n\n\n2 ounces ice cold water\n\n\n½ cup white sesame seeds\n\n\n  4 ounces white lotus paste\n\n\n2 cups vegetable oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine sugar and shortening in a bowl to make a paste. Add rice flour, baking powder, and ice water and mix everything into a dough ball. Wrap in plastic film and refrigerate for 30 minutes."},{"recipe_directions":"Remove dough from fridge and separate into 6 equal portions. Roll into balls and flatten the balls into thin disks. Portion lotus paste into 6 equal parts and roll into small balls. Set a lotus paste ball in the center of the flattened dough disks and wrap dough around the lotus paste. Roll between the palms of your hands until all the seams are gone and no lotus paste is showing."},{"recipe_directions":"Pour sesame seeds onto a saucer and roll finished balls in the sesame seeds. Roll balls between your palms one more time to make sure sesame seeds stick."},{"recipe_directions":"Pour oil into a pot and heat to 350 degrees F (175 degrees C). Drop balls into the hot oil and fry until golden brown, 5 to 6 minutes. Remove from the hot oil with a slotted spoon and drain on a paper towel-lined plate to absorb the excess oil"},{"recipe_directions":"Serve - be careful! The lotus paste inside the balls will be very hot."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"217\nCalories\n\n\n15g \nFat\n\n\n19g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641161-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uNKXldZNMFS8a5LyYLn98vN1CdY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/831470-7aa95e9c4b4649d990cebfa8a52450bf.jpg"
@@ -331,59 +664,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217873/moms-wonton/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Mom's Wonton</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n52 wontons"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound ground pork\n\n\n¾ pound cooked shrimp, shelled, deveined and coarsely chopped\n\n\n2 tablespoons minced green onions\n\n\n1 tablespoon minced fresh ginger root\n\n\n2 tablespoons chopped water chestnuts\n\n\n1 teaspoon cornstarch\n\n\n¼ teaspoon garlic salt\n\n\n1 pinch white sugar\n\n\n1 tablespoon dry sherry\n\n\n1 teaspoon chili oil\n\n\n1 tablespoon soy sauce\n\n\n¼ teaspoon sesame oil\n\n\n1 (16 ounce) package wonton skins\n\n\n1 pinch garlic salt\n\n\n1  egg white"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound ground pork\n\n\n¾ pound cooked shrimp, shelled, deveined and coarsely chopped\n\n\n2 tablespoons minced green onions\n\n\n1 tablespoon minced fresh ginger root\n\n\n2 tablespoons chopped water chestnuts\n\n\n1 teaspoon cornstarch\n\n\n¼ teaspoon garlic salt\n\n\n1 pinch white sugar\n\n\n1 tablespoon dry sherry\n\n\n1 teaspoon chili oil\n\n\n1 tablespoon soy sauce\n\n\n¼ teaspoon sesame oil\n\n\n1 (16 ounce) package wonton skins\n\n\n1 pinch garlic salt\n\n\n1  egg white'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large skillet, cook the ground pork over medium heat until no longer pink."},{"recipe_directions":"In a large mixing bowl, combine the shrimp, ground pork, green onions, ginger, and water chestnuts. Mix in the cornstarch, garlic salt, and sugar. Mix in the dry sherry, chili oil, soy sauce, and sesame oil."},{"recipe_directions":"Place about one teaspoon of the mixture in the center of each won ton wrapper. Bring points of the wrapper together (in a triangular shape) and pinch the edges, sealing them closed with egg whites."},{"recipe_directions":"Meanwhile, bring a large pot of water to boil. Carefully place won tons into boiling water without crowding. (Work in batches if necessary.) When the wontons float to the surface, add a cup of cold water and allow the water to come to a boil again. Then remove from the boiling water."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Pastries"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"374\nCalories\n\n\n8g \nFat\n\n\n46g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641168-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DmEOrMQZE0AkbU-Q8nK0BJYXxDc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/585329-45c3c01854864e40b80ef6ecbd269daa.jpg"
@@ -394,59 +723,55 @@
 Chinese Steamed Daikon Cake</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282727/chinese-steamed-daikon-cake/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Chinese Steamed Daikon Cake</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 35 mins\n\n\nAdditional Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n8 \n\n\nYield:\n1 10-inch cake"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups rice flour\n\n\n4 cups cold water, divided\n\n\n⅔ cup dried shrimp\n\n\n¾ cup Chinese bacon\n\n\n4 tablespoons vegetable oil, divided\n\n\n2 pounds daikon radish, peeled and grated\n\n\n⅓ cup rock sugar\n\n\n2 tablespoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups rice flour\n\n\n4 cups cold water, divided\n\n\n⅔ cup dried shrimp\n\n\n¾ cup Chinese bacon\n\n\n4 tablespoons vegetable oil, divided\n\n\n2 pounds daikon radish, peeled and grated\n\n\n⅓ cup rock sugar\n\n\n2 tablespoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine rice flour and 2 cups cold water in a large, heatproof mixing bowl. Mix until smooth and velvety; set aside."},{"recipe_directions":"Soak dried shrimp in 1 cup cold water in a small bowl until softened, about 15 minutes. Drain and dry shrimp, then finely chop and set aside."},{"recipe_directions":"Boil enough water to immerse bacon in a small pot, and cook to soften, 3 to 4 minutes. Remove from heat and pat dry. Finely chop and set aside."},{"recipe_directions":"Heat 2 tablespoons oil in a wok over medium heat. Add shrimp and cook until fragrant, about 3 minutes. Add bacon. Cook for another 3 minutes. Remove from heat and set aside."},{"recipe_directions":"Clean the wok and heat remaining oil over medium-high heat. Stir-fry daikon and rock sugar for 3 minutes. Add 1 cup water, cover the wok, and steam daikon until just cooked, about 10 minutes. Remove from heat."},{"recipe_directions":"Add hot daikon mixture to the reserved rice flour mixture, mixing until daikon is well incorporated. Add bacon, shrimp, and salt; stir until evenly distributed. Pour into a 10-inch round cake pan and smooth out the top."},{"recipe_directions":"Bring some water to a boil in a wok. Place the cake pan on the wok rack, making sure the bottom half of the pan is immersed. Cover and reduce heat to medium. Steam until a toothpick goes cleanly through the center, about 1 hour. Check the water level regularly and replenish, if necessary, with boiling water. Remove pan and allow to cool on a rack for about 1 hour."},{"recipe_directions":"You can serve the turnip cake as-is, or pan-fry the steamed slices. To pan-fry, slice the cake into 1/4-inch thick rectangles. Heat a pan over medium heat. Add enough oil to barely cover the bottom and cook the cake slices until golden brown, about 3 to 5 minutes per side."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Holidays and Events Recipes"},{"recipe_tags":"Lunar New Year"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"369\nCalories\n\n\n10g \nFat\n\n\n61g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641177-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EfrFcDu0kW7P98iM0lmozP7HJu4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1060634-a7c9618b03344534acfed4426c9cbc2d.jpg"
@@ -459,59 +784,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/197938/chinese-dandelion-dumplings/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Chinese Dandelion Dumplings</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 10 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 8 hrs\n\n\nServings:\n10 \n\n\nYield:\n100 dumplings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground pork\n\n\n2 cups minced dandelion greens\n\n\n3 cups minced napa cabbage\n\n\n½ cup minced bok choy leaves\n\n\n4  green onions, white and light green parts only, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n3 cloves garlic, minced\n\n\n1 (8 ounce) can bamboo shoots, drained and minced\n\n\n3 tablespoons soy sauce\n\n\n1 teaspoon white pepper\n\n\n1 teaspoon kosher salt\n\n\n1 teaspoon white sugar\n\n\n4 teaspoons sesame oil\n\n\n1  egg whites\n\n\n1 tablespoon water\n\n\n100  wonton wrappers\n\n\n½ cup vegetable oil\n\n\n2 teaspoons chili oil, or to taste\n\n\n3 tablespoons hoisin sauce\n\n\n½ cup soy sauce\n\n\n4 teaspoons sesame oil\n\n\n1 teaspoon white sugar\n\n\n3 tablespoons balsamic vinegar\n\n\n1 teaspoon minced fresh ginger root\n\n\n2 tablespoons chopped green onion\n\n\n2 cloves garlic, minced"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground pork\n\n\n2 cups minced dandelion greens\n\n\n3 cups minced napa cabbage\n\n\n½ cup minced bok choy leaves\n\n\n4  green onions, white and light green parts only, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n3 cloves garlic, minced\n\n\n1 (8 ounce) can bamboo shoots, drained and minced\n\n\n3 tablespoons soy sauce\n\n\n1 teaspoon white pepper\n\n\n1 teaspoon kosher salt\n\n\n1 teaspoon white sugar\n\n\n4 teaspoons sesame oil\n\n\n1  egg whites\n\n\n1 tablespoon water\n\n\n100  wonton wrappers\n\n\n½ cup vegetable oil\n\n\n2 teaspoons chili oil, or to taste\n\n\n3 tablespoons hoisin sauce\n\n\n½ cup soy sauce\n\n\n4 teaspoons sesame oil\n\n\n1 teaspoon white sugar\n\n\n3 tablespoons balsamic vinegar\n\n\n1 teaspoon minced fresh ginger root\n\n\n2 tablespoons chopped green onion\n\n\n2 cloves garlic, minced'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix pork, dandelion greens, napa cabbage, bok choy, 4 minced green onions, 1 tablespoon of ginger, 3 cloves of garlic, bamboo shoots, 3 tablespoons of soy sauce, white pepper, salt, 1 teaspoon of sugar, and 4 teaspoons of sesame oil. Chill in the refrigerator 6 to 8 hours, or overnight."},{"recipe_directions":"Beat the egg white with the water in a small bowl and set aside. Place 1 tablespoon of the pork mixture into a wonton wrapper, working one at at time. Cover additional wrappers with a moist towel to prevent drying. Brush the edges of the wrapper with the egg white mixture. Fold the wrapper and seal the edges with a moistened fork."},{"recipe_directions":"Spray a large skillet with cooking spray. Heat 2 tablespoons for vegetable oil over medium-high heat. Working in batches, place the dumplings into the skillet, seam side up. Cook until the dumplings brown slightly, 30 seconds to 1 minute. Pour 1/2 cup of water into the skillet and cover. Gently steam the dumplings until the oil and water begin to sizzle, 7 to 8 minutes. Once the water is cooked off, flip the dumplings and continue cooking until the bottom begin to brown, 3 to 5 minutes. Repeat in batches with the remaining dumplings, oil, and water. Serve with dipping sauce."},{"recipe_directions":"To make dipping sauce: Combine chili oil, hoisin sauce, 1/2 cup of soy sauce, 4 teaspoons of sesame oil, 1 teaspoon of sugar, balsamic vinegar, 1 teaspoon of ginger, 2 tablespoons of green onion, and 2 cloves of garlic in a bowl."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"602\nCalories\n\n\n30g \nFat\n\n\n55g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641184-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/z75J5zlLj9Ru9Dw54la2NWolKAY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9126550-c26aaae293324809bcd0eb07471dc48d.jpg"
@@ -524,59 +845,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70048/simple-and-tasty-chinese-steamed-buns/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Simple and Tasty Chinese Steamed Buns</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 buns"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon active dry yeast\n\n\n1 cup warm water\n\n\n2 cups all-purpose flour\n\n\n3 teaspoons white sugar\n\n\n½ teaspoon baking soda"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon active dry yeast\n\n\n1 cup warm water\n\n\n2 cups all-purpose flour\n\n\n3 teaspoons white sugar\n\n\n½ teaspoon baking soda'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sprinkle the yeast over 1 cup of warm water in a large bowl. The water should be no more than 100 degrees F (40 degrees C). Let stand for 5 minutes until the yeast softens and begins to form a creamy foam. Combine the flour, sugar, and baking soda in a small bowl. Stir half of the flour mixture into the yeast mixture until no dry spots remain. Stir in the remaining flour, a 1/2 cup at a time, mixing well after each addition. When the dough has pulled together, turn it out onto a lightly floured surface and knead until smooth and elastic, about 15 minutes."},{"recipe_directions":"Lightly oil a large bowl, then place the dough in the bowl and turn to coat with oil. Cover with a light cloth and let rise in a warm place (80 to 95 degrees F (27 to 35 degrees C)) until doubled in volume, about 1 hour. Divide the dough into 6 equal pieces and form into rounds."},{"recipe_directions":"Place a steamer insert into a saucepan, and fill with water to just below the bottom of the steamer. Cover, and bring the water to a boil over high heat. Add the buns, recover, and steam for 20 minutes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n1g \nFat\n\n\n35g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641192-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tCiEV2puWYZezWdX9aTlrPABmnU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/976656-baabbb03b60e4cc8b6b6540b36cf4a04.jpg"
@@ -589,59 +906,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17401/cantonese-style-pork-and-shrimp-dumplings/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Cantonese Style Pork and Shrimp Dumplings</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10 \n\n\nYield:\n40 dumplings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ pound ground pork\n\n\n1 cup chopped watercress\n\n\n½ (8 ounce) can water chestnuts, drained and chopped\n\n\n¼ cup chopped green onions\n\n\n1 tablespoon oyster sauce\n\n\n1 ½ tablespoons sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n1 (16 ounce) package round dumpling skins\n\n\n1 pound peeled and deveined medium shrimp"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ pound ground pork\n\n\n1 cup chopped watercress\n\n\n½ (8 ounce) can water chestnuts, drained and chopped\n\n\n¼ cup chopped green onions\n\n\n1 tablespoon oyster sauce\n\n\n1 ½ tablespoons sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n1 (16 ounce) package round dumpling skins\n\n\n1 pound peeled and deveined medium shrimp'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the pork, watercress, water chestnuts, green onion, oyster sauce, sesame oil, garlic, soy sauce, ground white pepper and salt and mix together well."},{"recipe_directions":"Place 1/2 teaspoonful of this filling onto each dumpling skin. Place 1 shrimp on the filling, slightly wet the edge of the dumpling skin, fold over and pinch with your fingers to form a seal all the way around."},{"recipe_directions":"To cook: Pan fry the dumplings in a large skillet over medium heat with oil for 15 minutes, turning over halfway through OR Place them in a pot of boiling water for 10 minutes; drain and serve in hot chicken broth."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n6g \nFat\n\n\n28g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641197-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DeuKsN94JuY5MJoF4zrJlBhcD1c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7784430-dd390c5ae18d41828ef40db5a9f0f6dd.jpg"
@@ -654,59 +967,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/38762/chinese-style-stuffed-mushrooms/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Chinese Style Stuffed Mushrooms</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"15 large fresh mushrooms, stems removed\n\n\n½ pound ground pork\n\n\n¼  slice Chinese salted turnip (chung choi), rinsed and chopped\n\n\n1 tablespoon soy sauce\n\n\n3 tablespoons finely chopped canned water chestnuts\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '15 large fresh mushrooms, stems removed\n\n\n½ pound ground pork\n\n\n¼  slice Chinese salted turnip (chung choi), rinsed and chopped\n\n\n1 tablespoon soy sauce\n\n\n3 tablespoons finely chopped canned water chestnuts\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove stems from mushrooms and discard or save for another use. Wipe caps clean with a dry towel."},{"recipe_directions":"In a bowl, combine the pork, turnip, soy sauce, water chestnuts, salt, and sugar until thoroughly mixed. Spoon stuffing tightly into mushroom caps. Arrange in a steamer basket, stuffing side up, over boiling water. Cover, and cook for 30 minutes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"},{"recipe_tags":"Mushrooms"},{"recipe_tags":"Stuffed Mushroom Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n9g \nFat\n\n\n5g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641204-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8UViW87yesWpeTQz2I9vB_Xh8Vg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/418266-26af646e61334f4d83862c69be4ec331.jpg"
@@ -719,59 +1028,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54004/cindis-egg-rolls/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cindi's Egg Rolls</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 egg rolls"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons vegetable oil, divided\n\n\n1 pound lean boneless pork, cut into thin strips\n\n\n4 cups shredded cabbage\n\n\n1 large carrot, shredded\n\n\n½  green bell pepper, cut into thin strips\n\n\n1 medium onion, chopped\n\n\n3 cloves garlic, minced\n\n\n3 teaspoons fresh ginger root, grated\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons soy sauce\n\n\n1 ½ tablespoons molasses\n\n\n2 tablespoons vegetable oil\n\n\n1 quart oil for frying\n\n\n1 ½ (14 ounce) packages egg roll wrappers\n\n\n¼ cup water, as needed\n\n\n1 ½ cups sweet and sour sauce for dipping"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons vegetable oil, divided\n\n\n1 pound lean boneless pork, cut into thin strips\n\n\n4 cups shredded cabbage\n\n\n1 large carrot, shredded\n\n\n½  green bell pepper, cut into thin strips\n\n\n1 medium onion, chopped\n\n\n3 cloves garlic, minced\n\n\n3 teaspoons fresh ginger root, grated\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons soy sauce\n\n\n1 ½ tablespoons molasses\n\n\n2 tablespoons vegetable oil\n\n\n1 quart oil for frying\n\n\n1 ½ (14 ounce) packages egg roll wrappers\n\n\n¼ cup water, as needed\n\n\n1 ½ cups sweet and sour sauce for dipping'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 2 tablespoons vegetable oil in large wok over medium-high heat. Stir-fry pork for 3 minutes. Transfer pork to paper towel-lined plate and set aside."},{"recipe_directions":"In a large bowl, mix the cabbage, carrot, green bell pepper, onion, garlic and ginger. In a small bowl, mix the cornstarch, soy sauce, and molasses until smooth."},{"recipe_directions":"Heat 2 tablespoons oil in wok. Stir in cabbage mixture in batches, cooking each batch 3 to 4 minutes, just until tender. Return vegetables to bowl, and mix in pork. Stir in the cornstarch mixture."},{"recipe_directions":"Prepare a work surface for rolling the egg rolls. Lay several egg roll wrappers in a row. Place the water in a small bowl; you'll use this for sealing."},{"recipe_directions":"Place about 2 to 3 tablespoons filling on each egg roll wrapper. Dip a finger in the water and run it along the edge of the wrapper. Fold one corner of wrapper over filling. Fold wrapper sides over filling. Roll wrappers to form egg rolls (See Cook's Note)."},{"recipe_directions":"Heat 1 quart oil in a deep fryer to 365 degrees F (185 degrees C)."},{"recipe_directions":"Fry egg rolls in batches in the hot oil until golden brown. Drain on paper towels and serve with sweet and sour sauce."},{"recipe_directions":"Instead of pork, you may use 1 pound ground beef or pork sausage, or 8 ounces precooked shrimp."},{"recipe_directions":"I like to use unsulphured molasses, such as Grandma's®."},{"recipe_directions":"Follow the instructions on the back of the egg roll wrapper package for Step 5."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"},{"recipe_tags":"Egg Roll Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"393\nCalories\n\n\n18g \nFat\n\n\n43g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641210-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -783,59 +1088,55 @@
 Double Skinned Milk</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258156/double-skinned-milk/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Double Skinned Milk</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups whole milk\n\n\n2  egg whites\n\n\n3 tablespoons white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups whole milk\n\n\n2  egg whites\n\n\n3 tablespoons white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour milk into 2 bowls; cover with aluminum foil. Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add bowls of milk, cover, and steam, about 5 minutes. Allow layer of skin to form on top of milk."},{"recipe_directions":"Flip up a corner of the milk skin and pour milk into an empty bowl, reserving the milk skin in the bowl."},{"recipe_directions":"Whisk egg whites and sugar together in a bowl; pour in the milk and mix well. Pour milk mixture back into the 2 bowls under the reserved milk skin. Cover with aluminum foil."},{"recipe_directions":"Steam milk mixture until set, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n12g \nFat\n\n\n36g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641216-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/crgDBJ3jmQlFXvufAwmWR2N_6oI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4462018-6dea7300c3014f70bae3b6a49cfed66c.jpg"
@@ -848,59 +1149,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7032/chinese-steamed-buns-with-bbq-pork-filling/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Char Siu Bao (Steamed BBQ Pork Buns)</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n50 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 6 hrs 30 mins\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n24 \n\n\nYield:\n24 steamed buns"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound boneless pork loin roast\n\n\n½ cup barbecue sauce\n\n\n⅓ cup chicken broth\n\n\n3 tablespoons shallots, chopped\n\n\n1 tablespoon dark soy sauce\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon white sugar\n\n\n1 recipe Chinese Steamed Buns"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound boneless pork loin roast\n\n\n½ cup barbecue sauce\n\n\n⅓ cup chicken broth\n\n\n3 tablespoons shallots, chopped\n\n\n1 tablespoon dark soy sauce\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon white sugar\n\n\n1 recipe Chinese Steamed Buns'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix pork, barbecue sauce, broth, shallots, soy sauce, oil, and sugar together in a glass or ceramic bowl. Cover and marinate in the refrigerator for at least 6 hours."},{"recipe_directions":"About three hours before the meat has finished marinating, follow Steps 1 through 4 in the Chinese Steamed Buns recipe to make dough. (This should take about 4 hours, so the dough will be ready when the pork has been cooked and shredded.)"},{"recipe_directions":"When pork has finished marinating, preheat an outdoor grill for medium heat and lightly oil the grate. Cut 24 small squares of waxed paper."},{"recipe_directions":"Remove pork from marinade and shake off excess. Discard remaining marinade."},{"recipe_directions":"Cook pork on the preheated grill until an instant-read meat thermometer reaches 145 degrees F (63 degrees C), 10 to 15 minutes. Allow to cool, then shred or finely chop meat."},{"recipe_directions":"Shape dough into 24 balls. Roll each ball into a circle and place 1 tablespoon pork in the center. Wrap dough up and over filling, then pinch to seal the edges. Place each bun, seam-side down, onto a waxed paper square; let stand until doubled in volume, about 30 minutes."},{"recipe_directions":"Bring water to a boil in a wok over high heat. Reduce the heat to medium and maintain a boil. Insert a steamer basket or place a steamer plate onto a small wire rack in the middle of the wok. Working in batches and leaving the outer 2 inches of the steam basket uncovered, place buns (on waxed paper) into the steamer basket, spacing them 1 to 2 inches apart. Cover the wok and steam for 15 to 20 minutes."},{"recipe_directions":"Remove the lid, then turn off the heat. (If you remove the lid after turning off the heat, condensation from the lid will drip onto the surface of the buns, causing yellowish blisters.) Remove buns from the wok."},{"recipe_directions":"Repeat Steps 6 and 7 to steam remaining buns, adding more water to the wok as needed."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount consumed will vary. The nutrition data for the dough is not included."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"35\nCalories\n\n\n2g \nFat\n\n\n3g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641223-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fc85brSi-2peoI1CyjyTRudhtVI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4487118-d22d07fb6859496693239a4f1a3d9f99.jpg"
@@ -913,59 +1210,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246670/szechuan-edamame-soy-beans/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Szechuan Edamame (Soy Beans)</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n0 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package frozen edamame in the pod\n\n\n2 teaspoons sesame seeds\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons olive oil\n\n\n1 teaspoon red pepper flakes, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package frozen edamame in the pod\n\n\n2 teaspoons sesame seeds\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons olive oil\n\n\n1 teaspoon red pepper flakes, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place edamame pods in a microwave-safe bowl with 1/4 cup water. Cover and microwave on high until tender, 4 to 6 minutes. Drain."},{"recipe_directions":"Place sesame seeds in a skillet over medium heat; toast until lightly golden, about 2 minutes. Add sugar, soy sauce, olive oil, and red pepper flakes. Simmer until soy sauce reduces and thickens slightly, about 2 minutes. Add edamame, toss until coated, and heat for 1 to 2 more minutes."},{"recipe_directions":"Substitute vegetable oil for the olive oil if desired."},{"recipe_directions":"If you don't want them too spicy, just omit the red pepper flakes or add more if you really want more of a kick."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n10g \nFat\n\n\n23g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641228-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6aqud2g0boxPTnUlordpCYpkmF8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/370691-hot-and-sweet-dipping-sauce-SunnyByrd-4x3-1-5c51e3c02b6b42c6a8149a3d820d43c6.jpg"
@@ -979,59 +1272,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/79735/hot-and-sweet-dipping-sauce/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Hot and Sweet Dipping Sauce</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup rice vinegar\n\n\n½ cup white sugar\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon salt\n\n\n1 ½ teaspoons dried red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup rice vinegar\n\n\n½ cup white sugar\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon salt\n\n\n1 ½ teaspoons dried red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring vinegar to a boil in a small, nonreactive pot. Stir in sugar until dissolved. Reduce heat to low, simmer for 5 minutes, and remove from heat."},{"recipe_directions":"Mash garlic and salt in a mortar and pestle to a smooth paste. Add paste to sweetened vinegar in the pot. Stir in red pepper flakes. Cool to room temperature before using. Store in the refrigerator for up to 2 days."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"101\nCalories\n\n\n0g \nFat\n\n\n26g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641234-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7tzaKYmHic2Nh2gBgLSQC92guBM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4484471-7478a98fa0e4415a927b9d78dbab7e47.jpg"
@@ -1044,59 +1333,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257372/taiwanese-dumplings/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Taiwanese Dumplings</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n20 \n\n\nYield:\n100 dumplings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 heads  napa cabbage, finely chopped\n\n\n1 bunch cilantro, chopped\n\n\n2 pounds ground pork\n\n\n3  jalapeno peppers, minced\n\n\n2 large egg whites\n\n\n1 (2 inch) piece ginger root, peeled and minced\n\n\n1 tablespoon sesame oil\n\n\n  salt and ground black pepper to taste\n\n\n3 (16 ounce) packages potsticker wrappers, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 heads  napa cabbage, finely chopped\n\n\n1 bunch cilantro, chopped\n\n\n2 pounds ground pork\n\n\n3  jalapeno peppers, minced\n\n\n2 large egg whites\n\n\n1 (2 inch) piece ginger root, peeled and minced\n\n\n1 tablespoon sesame oil\n\n\n  salt and ground black pepper to taste\n\n\n3 (16 ounce) packages potsticker wrappers, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread cabbage and cilantro over a clean dish towel. Gather up towel and squeeze out as much moisture from cabbage as possible."},{"recipe_directions":"Transfer cabbage and cilantro to a large bowl. Add pork, jalapeño peppers, egg whites, ginger, and sesame oil. Mix thoroughly with your hands. Season with salt and pepper."},{"recipe_directions":"Line 2 baking sheets with waxed paper. Fill a small bowl with water."},{"recipe_directions":"Hold a potsticker wrapper in the palm of your hand. Place a tablespoonful pork mixture in the center. Dip a finger in water and wet the edges of the wrapper. Fold up edges and pinch together to seal. Transfer dumpling to the prepared baking sheet. Repeat with remaining wrappers and pork mixture."},{"recipe_directions":"Place dumplings in the freezer until firm, about 2 hours. Transfer to large resealable plastic bags and store in the freezer."},{"recipe_directions":"You can substitute 2 leeks for napa cabbage if desired. I've also made these with 1 head napa cabbage, 1 head bok choy, and 1 bunch scallions. It's a great combo."},{"recipe_directions":"If you have dumplings that did not seal completely or have broken skin, do not freeze them, as they'll fall apart later. Just cook those for dinner tonight instead."},{"recipe_directions":"How to cook dumplings: Cook frozen dumplings in boiling water for about 5 minutes, then pan-fry in a greased skillet over medium heat until browned on all sides. If dumplings have not been frozen, skip the boiling step."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"305\nCalories\n\n\n8g \nFat\n\n\n41g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641240-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dhpr5DyipeOQMRYbw81PEscsLHE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/162144-d9c2ba097df64da38af32b7ea3f4efaf.jpg"
@@ -1109,59 +1394,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9002/sesame-oil-chicken-wings/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sesame Oil Chicken Wings</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds chicken wings\n\n\n1 ¼ cups water\n\n\n10 tablespoons dark soy sauce\n\n\n5 tablespoons light soy sauce\n\n\n1 clove crushed garlic\n\n\n1  green onion, chopped\n\n\n¼ cup sesame oil\n\n\n1 dash sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds chicken wings\n\n\n1 ¼ cups water\n\n\n10 tablespoons dark soy sauce\n\n\n5 tablespoons light soy sauce\n\n\n1 clove crushed garlic\n\n\n1  green onion, chopped\n\n\n¼ cup sesame oil\n\n\n1 dash sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut chicken wings into 3 portions. Combine chicken, water, dark soy sauce, light soy sauce, garlic, and green onion in a large skillet. Stir together and cook for 15 minutes over medium heat."},{"recipe_directions":"Add 1/4 cup sesame oil and simmer for another 15 minutes over low heat. Bring mixture to a boil and add a dash of sesame oil. Remove from heat, let cool, and serve."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"330\nCalories\n\n\n25g \nFat\n\n\n3g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641246-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iIFi3aqXKtGrwaEmCiErm4Tu1j8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/734538-0dd396da513d435e901e45b9eac7c69c.jpg"
@@ -1174,59 +1455,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12876/egg-rolls/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Egg Rolls</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package wonton wrappers\n\n\n1 pound lean ground beef\n\n\n1 pound shrimp - peeled, deveined and coarsely chopped\n\n\n5 tablespoons soy sauce\n\n\n3 tablespoons oyster sauce\n\n\n1 pound bean sprouts\n\n\n2  green onions\n\n\n3 stalks celery, chopped\n\n\n1 medium head cabbage, finely shredded\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon monosodium glutamate (MSG)\n\n\n1 cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package wonton wrappers\n\n\n1 pound lean ground beef\n\n\n1 pound shrimp - peeled, deveined and coarsely chopped\n\n\n5 tablespoons soy sauce\n\n\n3 tablespoons oyster sauce\n\n\n1 pound bean sprouts\n\n\n2  green onions\n\n\n3 stalks celery, chopped\n\n\n1 medium head cabbage, finely shredded\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon monosodium glutamate (MSG)\n\n\n1 cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cabbage, bean sprouts, celery, and green onions in a large wok and stir-fry over high heat until vegetables cook down (add a little water if necessary). Mix in shrimp, stir-fry until cooked."},{"recipe_directions":"In a large skillet, brown ground meat. Drain grease and add the meat to the vegetable and shrimp mixture. Continue to fry over high heat; add oyster sauce, soy sauce, garlic, and MSG. When well blended, remove the mixture from heat."},{"recipe_directions":"Place a tablespoon of the meat and seafood mixture (or more, depending on how large your wonton skins are) into the center of each wonton skin. Fold the wonton skin over to make a package of the meat mixture inside, and seal the skin closed by dipping your finger in a little water and pressing the ends together to make egg rolls."},{"recipe_directions":"Fry the egg rolls in 1/4 inch vegetable oil until golden brown."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"},{"recipe_tags":"Egg Roll Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"275\nCalories\n\n\n8g \nFat\n\n\n29g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641253-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3HmmrDN0bN-3BRv1aH1hoq6zORQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/3345838-chef-johns-shrimp-toast-Chef-John-1x1-1-922fbf99a2c3456383e774352cbaed85.jpg"
@@ -1240,59 +1517,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246030/chef-johns-shrimp-toast/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Chef John's Shrimp Toast</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n4 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 24 mins\n\n\nServings:\n4 \n\n\nYield:\n16 shrimp toasts"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound raw shrimp, peeled and deveined \n\n\n¼ cup diced water chestnuts\n\n\n¼ cup chopped cilantro leaves\n\n\n½ cup finely sliced green onions, plus more for garnish if desired\n\n\n3  garlic cloves, crushed\n\n\n1 tablespoon finely grated ginger root\n\n\n1  anchovy filet\n\n\n1 teaspoon toasted sesame oil\n\n\n1 teaspoon Asian fish sauce\n\n\n1 tablespoon soy sauce, or more to taste\n\n\n1  egg white\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon paprika\n\n\n1 pinch cayenne pepper\n\n\n1 pinch salt\n\n\n4 thick slices white bread\n\n\n1 teaspoon Sesame seeds\n\n\n1 cup vegetable oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound raw shrimp, peeled and deveined \n\n\n¼ cup diced water chestnuts\n\n\n¼ cup chopped cilantro leaves\n\n\n½ cup finely sliced green onions, plus more for garnish if desired\n\n\n3  garlic cloves, crushed\n\n\n1 tablespoon finely grated ginger root\n\n\n1  anchovy filet\n\n\n1 teaspoon toasted sesame oil\n\n\n1 teaspoon Asian fish sauce\n\n\n1 tablespoon soy sauce, or more to taste\n\n\n1  egg white\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon paprika\n\n\n1 pinch cayenne pepper\n\n\n1 pinch salt\n\n\n4 thick slices white bread\n\n\n1 teaspoon Sesame seeds\n\n\n1 cup vegetable oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place shrimp, water chestnuts, cilantro leaves, green onions, garlic, grated ginger, anchovy filet, sesame oil, fish sauce, soy sauce, egg white, sugar, paprika, cayenne pepper, and salt into the bowl of a food processor. Pulse several times; scrape down the sides of the bowl. Continue to process until mixture is well blended and reaches a paste consistency, 1 or 2 minutes. Transfer mixture to a bowl; cover with plastic wrap and refrigerate to blend the flavors, about 1 hour."},{"recipe_directions":"Very lightly toast bread slices. Trim crusts from bread. Spread shrimp paste onto bread in an equal thickness as the bread. Cut slices in half and then diagonally into diamond shapes. Sprinkle with sesame seeds."},{"recipe_directions":"Place a heavy skillet over medium-high heat; pour in about 1/2 inch of vegetable oil. When oil is hot, add bread slices, paste-side down, and fry until crispy, 2 to 3 minutes per side. Transfer to a paper towel-lined plate. Serve hot or warm garnished with additional sliced green onions."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Canapes and Crostini Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"212\nCalories\n\n\n9g \nFat\n\n\n20g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641258-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3XavICmHg4Q0ps48W5daHErZToA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5308041-chef-johns-chinese-scallion-pancakes-Chef-John-1x1-1-602ca1b0a9794b24b276f03317ec2c6a.jpg"
@@ -1306,59 +1579,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263821/chef-johns-chinese-scallion-pancakes/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Chef John's Chinese Scallion Pancakes</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 50 mins\n\n\nServings:\n8 \n\n\nYield:\n2 pancakes"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups bread flour\n\n\n1 ½ teaspoons kosher salt\n\n\n¾ cup very hot water"},{"recipe_ingredients":"3 tablespoons vegetable oil\n\n\n2 teaspoons sesame oil\n\n\n1 tablespoon all-purpose flour\n\n\n1 teaspoon all-purpose flour\n\n\n1 bunch green onions, mostly green parts, thinly sliced\n\n\n1 ½ tablespoons vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups bread flour\n\n\n1 ½ teaspoons kosher salt\n\n\n¾ cup very hot water'}, {'recipe_ingredients': '3 tablespoons vegetable oil\n\n\n2 teaspoons sesame oil\n\n\n1 tablespoon all-purpose flour\n\n\n1 teaspoon all-purpose flour\n\n\n1 bunch green onions, mostly green parts, thinly sliced\n\n\n1 ½ tablespoons vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine bread flour and salt in a large bowl. Make a well in the middle and pour in hot water. Mix together with a wooden spoon to form a shaggy dough."},{"recipe_directions":"Transfer dough onto a lightly floured work surface. Knead dough until sticky but relatively smooth and elastic, dusting with a minimal amount of flour if needed. Wrap in plastic wrap and let dough rest for 2 hours."},{"recipe_directions":"Mix vegetable oil, sesame oil, and flour together in a skillet over medium heat until starting to bubble, about 3 minutes. Cook for 1 minute more. Remove from heat and cool to room temperature."},{"recipe_directions":"Unwrap dough and cut in half. Roll out into a tube and press down with your fingers. Use a rolling pin to flatten dough into a rectangular shape about 1/8-inch thick, flipping over and dusting lightly with flour halfway through."},{"recipe_directions":"Paint surface of the dough with the oil mixture until just covered, leaving 1 inch of space on the edges. Sprinkle scallions on top. Roll dough up tightly to seal in the scallions, starting with the long side. Pull the opposite edge over the top once you have reached it."},{"recipe_directions":"Coil 1 end of the dough inward toward the middle; wrap the opposite end around the coil to finish, tucking the tip under the bottom. Dust the coil with flour and roll dough out into a pancake about 1/4-inch thick. Repeat with remaining dough, oil, and green onions to make the second pancake."},{"recipe_directions":"Heat vegetable oil in a cast iron skillet over high heat. Add 1 pancake; lower heat to medium. Cook until crispy and browned, about 4 minutes per side. Repeat with the other pancake. Cut into wedges."},{"recipe_directions":"Feel free to substitute all-purpose flour for the bread flour."},{"recipe_directions":"You can wrap the dough in plastic wrap and leave overnight. You'll probably get a better flavor, and maybe texture, but the dough will be more elastic, and slightly more difficult to work with."},{"recipe_directions":"Feel free to add pepper flakes or other appropriate embellishments before you roll these up."},{"recipe_directions":"As far as the dipping sauce goes, I like to mix equal parts seasoned rice vinegar and soy sauce, flavored with a shot of hot sauce, and maybe grating of fresh ginger. Toss in a few sliced green onions, and you'll have yourself a very basic, but perfect condiment for these savory pancakes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"200\nCalories\n\n\n9g \nFat\n\n\n25g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641264-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tKNByWwhQDxqk7_YB9mK7bGjWco=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1482086-f0ed91b912ae4a4c9d46410b16460f44.jpg"
@@ -1371,59 +1640,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14850/crab-rangoon-i/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Crispy Crab Rangoon</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10 \n\n\nYield:\n40 wontons"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (8 ounce) packages cream cheese, softened\n\n\n1 pound crabmeat, shredded\n\n\n3 tablespoons dark soy sauce\n\n\n1 teaspoon minced fresh ginger root\n\n\n½ teaspoon chopped fresh cilantro\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon minced garlic\n\n\n1 (14 ounce) package small won ton wrappers\n\n\n1 quart oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (8 ounce) packages cream cheese, softened\n\n\n1 pound crabmeat, shredded\n\n\n3 tablespoons dark soy sauce\n\n\n1 teaspoon minced fresh ginger root\n\n\n½ teaspoon chopped fresh cilantro\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon minced garlic\n\n\n1 (14 ounce) package small won ton wrappers\n\n\n1 quart oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cream cheese, crabmeat, soy sauce, ginger, cilantro, parsley, and garlic together in a bowl."},{"recipe_directions":"Heat oil in a large heavy skillet or deep fryer to 360 degrees F (180 degrees C)."},{"recipe_directions":"While the oil is heating, place 1/2 to 1 teaspoon cream cheese mixture into the center of a wonton wrapper. Moisten the wrapper edges and pull two corners together over filling to make a triangle. Pull two remaining corners up to join them, then press firmly to seal. Repeat to make remaining wontons. Place prepared wontons under a slightly moist paper towel until oil is hot."},{"recipe_directions":"Working in batches, fry 3 or 4 wontons at a time in hot oil until golden brown and crispy, 1 to 2 minutes, flipping halfway through. Transfer wontons to a paper towel-lined plate to drain. Serve hot."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Crab"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"393\nCalories\n\n\n26g \nFat\n\n\n24g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641270-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fjmYwr_ype89gJVUbXBNYmWgZUk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/616449-55708afdcd05401e978d61a4b1748f08.jpg"
@@ -1436,59 +1701,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213476/chinese-cocktail-buns/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Chinese Cocktail Buns</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs 30 mins\n\n\nTotal Time:\n 3 hrs 25 mins\n\n\nServings:\n32 \n\n\nYield:\n32 buns"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup white sugar\n\n\n1 cup milk\n\n\n¼ cup softened butter\n\n\n1 tablespoon active dry yeast\n\n\n2 ½ cups all-purpose flour\n\n\n1  egg, beaten (Optional)\n\n\n1 cup all-purpose flour, or more if needed\n\n\n¼ cup softened butter\n\n\n½ cup white sugar\n\n\n½ cup nonfat dry milk powder\n\n\n½ cup all-purpose flour\n\n\n1 cup finely grated fresh coconut\n\n\n1  egg (Optional)\n\n\n1 tablespoon sesame seeds, for garnish (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup white sugar\n\n\n1 cup milk\n\n\n¼ cup softened butter\n\n\n1 tablespoon active dry yeast\n\n\n2 ½ cups all-purpose flour\n\n\n1  egg, beaten (Optional)\n\n\n1 cup all-purpose flour, or more if needed\n\n\n¼ cup softened butter\n\n\n½ cup white sugar\n\n\n½ cup nonfat dry milk powder\n\n\n½ cup all-purpose flour\n\n\n1 cup finely grated fresh coconut\n\n\n1  egg (Optional)\n\n\n1 tablespoon sesame seeds, for garnish (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 1/3 cup sugar and milk in a small saucepan, and stir until the sugar is dissolved. Add 1/4 cup softened butter, and gently warm the mixture until the butter melts and the mixture is warm but not hot (no warmer than about 100 degrees F (40 degrees C). In a large bowl, stir together the yeast with 2 1/2 cups flour until well blended, and pour the milk mixture into the flour-yeast mixture. Stir in 1 beaten egg, and mix until the mixture forms a sticky, wet dough."},{"recipe_directions":"Turn the dough out onto a well-floured surface, and knead for about 10 minutes, gradually kneading in 1 cup of additional flour or as needed to make a smooth, elastic dough. Form the dough into a round ball, place into an oiled bowl, and turn the dough around in the bowl a few times to coat with oil. Cover the bowl with a cloth, and allow dough to rise in a warm place until doubled, about 1 hour."},{"recipe_directions":"Cream 1/4 cup softened butter with 1/2 cup of sugar in a bowl until the mixture is light and fluffy, and stir in dry milk powder, 1/2 cup flour, and the coconut until the mixture is smooth and well blended. Set the filling aside."},{"recipe_directions":"Working on a floured surface, punch down the dough, and cut into 2 equal pieces. Cut each piece into 8 equal-sized pieces (16 pieces total). Form each piece into an oblong bun, and flatten the bun with a floured rolling pin. Scoop up about 1 tablespoon of filling with a spoon, and place in the center of a bun. Pull and pinch the edges of the dough together to enclose the filling in the bun. Repeat with all dough pieces, and place the filled buns, seam sides down, onto the prepared baking sheets. Cover the buns with a cloth, and allow to rise in a warm place 1 hour."},{"recipe_directions":"Preheat an oven to 375 degrees F (190 degrees C). Line baking sheets with parchment paper."},{"recipe_directions":"For a glossy coating, beat 1 egg in a bowl, and brush each bun with a little beaten egg. Sprinkle each bun with a few sesame seeds."},{"recipe_directions":"Bake in the preheated oven until the buns are golden brown, 10 to 15 minutes. Allow to cool before serving."},{"recipe_directions":"Cook's Notes"},{"recipe_directions":"Recipe makes 16 large buns or 32 small buns."},{"recipe_directions":"For bread to rise, warm oven to 150 degrees F (70 degrees C). When oven is warm, turn it off and place the covered dough into the oven for 1 hour to rise."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"129\nCalories\n\n\n5g \nFat\n\n\n19g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641277-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dQyeDUZhYkm0Ik09N17UVxDgxyE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1349x0:1351x2):format(webp)/6297119-43c0df57993d495caa12ab84d325ac3e.jpg"
@@ -1501,59 +1762,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260521/green-onion-pancake/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Green Onion Pancake</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n6 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 6 mins\n\n\nServings:\n10 \n\n\nYield:\n10 pancakes"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups all-purpose flour\n\n\n1 cup hot water\n\n\n½ cup cold water\n\n\n1 cup chopped scallions, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n¼ cup butter, softened\n\n\n1 ½ teaspoons vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups all-purpose flour\n\n\n1 cup hot water\n\n\n½ cup cold water\n\n\n1 cup chopped scallions, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n¼ cup butter, softened\n\n\n1 ½ teaspoons vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place flour in a bowl. Add hot water slowly in a steady stream, mixing well after each addition. Add cold water; mix until no dry spots remain. Knead dough lightly by hand until a ball is formed. Place dough in an oiled resealable plastic bag; seal the bag and let dough rest for 30 minutes."},{"recipe_directions":"Place scallions in a bowl; season with salt and pepper."},{"recipe_directions":"Roll dough out onto a floured work surface into a thin rectangle using a rolling pin. Spread butter all over; sprinkle evenly with salt and pepper. Spread scallions over the dough, leaving top edge of the dough empty. Roll dough up carefully from the opposite edge, keeping scallions in place and pulling dough a little with every roll to make it tight."},{"recipe_directions":"Cut the roll into 3- to 4-inch-long pieces by hand; pinch and seal both ends. Lightly flatten each piece into a circular pancake."},{"recipe_directions":"Heat a nonstick saucepan with oil; cook pancakes until golden brown, about 3 minutes per side. Crush 2 sides of the pancakes with spoons or ladles until flaky."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Pastries"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"186\nCalories\n\n\n6g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641286-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iS6sVh5u1k8sxorCqhwjgSmcIZ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/692888-potstickers-chinese-dumplings-LZakaria-1x1-1-745d59650b2243ccb96f2017267de296.jpg"
@@ -1567,59 +1824,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202975/potstickers-chinese-dumplings/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Potstickers (Chinese Dumplings)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n50 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n 1 hr 2 mins\n\n\nServings:\n12 \n\n\nYield:\n50 potstickers"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound raw shrimp, peeled and deveined \n\n\n4 pounds ground beef\n\n\n1 tablespoon minced fresh ginger root\n\n\n1  shallot, minced\n\n\n1 bunch green onions, chopped\n\n\n3 leaves napa cabbage, chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon Asian (toasted) sesame oil\n\n\n  salt and white pepper to taste\n\n\n1 pinch white sugar\n\n\n1 (10 ounce) package round gyoza/potsticker wrappers\n\n\n  vegetable oil\n\n\n¼ cup water"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound raw shrimp, peeled and deveined \n\n\n4 pounds ground beef\n\n\n1 tablespoon minced fresh ginger root\n\n\n1  shallot, minced\n\n\n1 bunch green onions, chopped\n\n\n3 leaves napa cabbage, chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon Asian (toasted) sesame oil\n\n\n  salt and white pepper to taste\n\n\n1 pinch white sugar\n\n\n1 (10 ounce) package round gyoza/potsticker wrappers\n\n\n  vegetable oil\n\n\n¼ cup water'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the shrimp in the work bowl of a food processor, and process until the shrimp are finely ground. Set aside in a large bowl. Working in batches, process the ground beef to a fine grind, and set aside with the shrimp. Combine the shrimp and ground beef with ginger, shallot, green onions, napa cabbage, soy sauce, sesame oil, salt and pepper, and white sugar, and mix the ingredients until thoroughly combined."},{"recipe_directions":"To fill the pot stickers, place a wrapper on a work surface in front of you, and place a scant teaspoon of filling in the center. With a wet finger, dampen the edges of the wrapper. Fold the dough into a half-moon shape, enclosing the filling, and press and seal to remove extra air and tightly seal the edges together. It's nice to fold several small pleats in the top half of the wrapper for a traditional look before you seal in the filling. Refrigerate the filled wrappers on a parchment-lined baking sheet while you finish filling and sealing the pot stickers."},{"recipe_directions":"Heat the oil in a large nonstick skillet with a lid over medium heat. Place pot stickers into the hot oil, flat sides down, without crowding, and let fry until the bottoms are golden brown, 1 to 2 minutes. Turn the dumplings over, and pour the water over them. Cover the pan with a lid and let the dumplings steam until the water has nearly evaporated and the dumplings have begun to fry in oil again, 5 to 7 minutes. Uncover the skillet, and let the pot stickers cook until all the water is evaporated and the wrapper has shrunk down tightly onto the filling, another 2 to 3 minutes."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of filling. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"411\nCalories\n\n\n22g \nFat\n\n\n16g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641291-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3CTtGjtVSugHdDih11rJxKSVVEw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(498x157:500x159):format(webp)/3103210-pan-fried-chinese-pancakes-jessFu-4x3-1-371dd5c4e3ff4cbea21d44bea7e3472f.jpg"
@@ -1633,59 +1886,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214564/pan-fried-chinese-pancakes/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Pan-Fried Chinese Pancakes</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 pancakes"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ teaspoon salt\n\n\n¾ cup warm water\n\n\n1 cup all-purpose flour\n\n\n¼ teaspoon vegetable oil (Optional)\n\n\n¼ cup all-purpose flour\n\n\n1 tablespoon vegetable oil (Optional)\n\n\n1 tablespoon Asian (toasted) sesame oil, or as needed\n\n\n½ cup finely chopped green onion\n\n\n1 tablespoon vegetable oil, or as needed (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ teaspoon salt\n\n\n¾ cup warm water\n\n\n1 cup all-purpose flour\n\n\n¼ teaspoon vegetable oil (Optional)\n\n\n¼ cup all-purpose flour\n\n\n1 tablespoon vegetable oil (Optional)\n\n\n1 tablespoon Asian (toasted) sesame oil, or as needed\n\n\n½ cup finely chopped green onion\n\n\n1 tablespoon vegetable oil, or as needed (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve salt in warm water, and mix in 1 cup of flour to make a soft dough. Turn the dough out onto a well-floured work surface, and knead until slightly springy, about 5 minutes. If the dough is sticky, knead in 1/4 teaspoon of vegetable oil. Divide the dough into 8 equal-size pieces, and keep the pieces covered with a cloth."},{"recipe_directions":"In a bowl, mix 1/4 cup of flour with 1 tablespoon vegetable oil to make a mixture like fine crumbs."},{"recipe_directions":"On a floured work surface, roll a piece of dough out into a thin square about 5x7 inches in size, brush the dough with toasted sesame oil, and sprinkle lightly with about 1 1/2 teaspoon of the flour-oil mixture. Sprinkle about 1 tablespoon of chopped green onion onto the dough, and spread the onion out evenly. Starting with a long end, roll the dough up into a rope shape, and pinch the seam and the ends closed. Roll the rope shape into a flat spiral, and press lightly with your hands to compact the spiral and keep it from unrolling."},{"recipe_directions":"Place the spiral down onto the floured work surface, and gently roll it out into a pancake with the onions folded inside, turning the pancake over often as you roll it out. Roll gently and turn often to avoid making holes in the pancakes. Finished pancakes should be about 5 inches in diameter. Repeat with the rest of the dough pieces, making 8 onion pancakes."},{"recipe_directions":"Heat a non-stick skillet over medium heat, and brush with vegetable oil. Pan-fry each pancake in the hot skillet until golden brown on both sides, about 5 minutes per side. Cut into wedges and serve warm."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"120\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641297-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G_Mx-sTSHTFLwCAoxUMpjmDvJmk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/2432892-pot-stickers-traditional-Allrecipes-Magazine-1x1-1-b9be0e9a8e1442af89110a299216158d.jpg"
@@ -1699,59 +1948,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22460/pot-stickers-traditional/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Pot Stickers Traditional</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 7 hrs 10 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound ground pork\n\n\n½ medium head cabbage, finely chopped\n\n\n1  green onion, finely chopped\n\n\n2 slices fresh ginger root, finely chopped\n\n\n2  water chestnuts, drained and finely chopped\n\n\n1 teaspoon salt\n\n\n½ teaspoon white sugar\n\n\n1 teaspoon sesame oil\n\n\n1 (14 ounce) package wonton wrappers\n\n\n5 tablespoons vegetable oil\n\n\n¾ cup water\n\n\n1 tablespoon chili oil\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon rice vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound ground pork\n\n\n½ medium head cabbage, finely chopped\n\n\n1  green onion, finely chopped\n\n\n2 slices fresh ginger root, finely chopped\n\n\n2  water chestnuts, drained and finely chopped\n\n\n1 teaspoon salt\n\n\n½ teaspoon white sugar\n\n\n1 teaspoon sesame oil\n\n\n1 (14 ounce) package wonton wrappers\n\n\n5 tablespoons vegetable oil\n\n\n¾ cup water\n\n\n1 tablespoon chili oil\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon rice vinegar'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Crumble pork into a large, deep skillet. Cook over medium high heat until evenly brown. Drain and set aside."},{"recipe_directions":"In a medium bowl, mix together the pork, cabbage, green onion, ginger, water chestnuts, salt, sugar and sesame oil. Chill in the refrigerator 6 to 8 hours, or overnight."},{"recipe_directions":"Place a tablespoon of the pork mixture into each of the wonton wrappers. Fold the wrappers, and seal the edges with a moistened fork."},{"recipe_directions":"In a large, deep skillet, heat 3 tablespoons vegetable oil over medium high heat. Place the pot stickers into the oil seam sides up. Heat 30 seconds to a minute. Pour water into the skillet. Gently boil 7 to 8 minutes, until oil and water begins to sizzle, then add remaining oil. When the bottoms begin to brown, remove pot stickers from heat."},{"recipe_directions":"In a small serving bowl, mix together the chili oil, soy sauce, and vinegar, adjusting proportions to taste."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n8g \nFat\n\n\n17g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641302-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3jJNo-smpesdc_3nlIrq5szjOBo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2079x0:2081x2):format(webp)/5169864-13234cb24496483bab6c0263b8b64411.jpg"
@@ -1764,59 +2009,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/186731/jian-bing-chinese-crepes/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Jian Bing (Chinese Crêpes)</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n1 \n\n\nYield:\n1 crêpe"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons millet flour\n\n\n2 tablespoons soy milk\n\n\n½ teaspoon vegetable oil\n\n\n1 teaspoon water, if needed\n\n\n1 tablespoon Chinese black bean sauce\n\n\n1 teaspoon water\n\n\n½ teaspoon Asian chile pepper sauce, or to taste\n\n\n1 teaspoon water\n\n\n  cooking spray\n\n\n1  egg, beaten\n\n\n½  green onion, sliced\n\n\n1 tablespoon torn fresh cilantro leaves\n\n\n2  whole crackers"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons millet flour\n\n\n2 tablespoons soy milk\n\n\n½ teaspoon vegetable oil\n\n\n1 teaspoon water, if needed\n\n\n1 tablespoon Chinese black bean sauce\n\n\n1 teaspoon water\n\n\n½ teaspoon Asian chile pepper sauce, or to taste\n\n\n1 teaspoon water\n\n\n  cooking spray\n\n\n1  egg, beaten\n\n\n½  green onion, sliced\n\n\n1 tablespoon torn fresh cilantro leaves\n\n\n2  whole crackers'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk millet flour, soy milk, and vegetable oil together in a bowl to make a batter with the consistency of heavy cream. Add a teaspoon of water to thin the batter, if necessary."},{"recipe_directions":"Mash black bean sauce in a small bowl with 1 teaspoon water to make it easy to spread. Mix hot chili sauce with 1 teaspoon of water in a separate small bowl. Set both sauces aside."},{"recipe_directions":"Spray a large skillet generously with cooking spray, and heat over medium-low heat. Pour batter into the skillet, and spread evenly to make a thin crêpe; cook until firm, about 1 to 2 minutes. Pour egg evenly over crêpe; cook an additional 1 to 2 minutes, until egg is set. Sprinkle crêpe with green onion slices and cilantro leaves, pressing them firmly into cooked egg."},{"recipe_directions":"Flip crêpe and spread with bean sauce and chili sauce. Place crackers in the center of crêpe, leaving about 1/4 inch of space between the two crackers. Flip top third of crêpe down over crackers; flip the bottom third up, and then fold the crêpe in half so the crackers are stacked on top of each other in a tidy package. Serve hot."},{"recipe_directions":"Use any kind of savory cracker, a piece of crisp fried wonton skin, or a piece of fried pork rind for the crunchy filling."},{"recipe_directions":"You can substitute all-purpose flour for millet flour, and regular milk for soy milk."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"220\nCalories\n\n\n11g \nFat\n\n\n20g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641307-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r-8HD6bu4lUGEjxg22flEs-zF7I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/372422-green-onion-cakes-Alberta-Rose-4x3-1-357264bea0394e929a308bfd6537b5ef.jpg"
@@ -1830,59 +2071,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/203178/green-onion-cakes/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Green Onion Cakes</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8 \n\n\nYield:\n16 cakes"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups bread flour\n\n\n1 ¼ cups boiling water\n\n\n2 tablespoons vegetable oil\n\n\n  salt and pepper to taste\n\n\n1 bunch green onions, finely chopped\n\n\n2 teaspoons vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups bread flour\n\n\n1 ¼ cups boiling water\n\n\n2 tablespoons vegetable oil\n\n\n  salt and pepper to taste\n\n\n1 bunch green onions, finely chopped\n\n\n2 teaspoons vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Use a fork to mix flour and boiling water in a large bowl. Knead dough into a ball. Cover bowl with plastic wrap; let dough rest for 30 to 60 minutes."},{"recipe_directions":"Evenly divide dough into 16 pieces. Roll each piece into a 1/4 inch thick circle. Brush each circle with oil, season with salt and pepper, and sprinkle with about 1 teaspoon of green onions. Roll up, cigar style; coil each pancake and pinch open ends together to form a disc. Roll each circle flat to about 1/4 inch thickness."},{"recipe_directions":"Heat 2 teaspoons oil in a large skillet. Fry cakes until golden brown, about 2 minutes on each side. Add more oil between batches, if necessary."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"49\nCalories\n\n\n5g \nFat\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641314-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/K62tkbhKO8l92jaVm3Dc0Uz-bds=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/195107-de91ace5a0964deea64d584757275a28.jpg"
@@ -1895,59 +2132,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18252/beef-egg-rolls/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Beef Egg Rolls</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n16 \n\n\nYield:\n16 egg rolls"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 medium onion, thinly sliced\n\n\n½ teaspoon dried minced garlic\n\n\n1 teaspoon ground ginger\n\n\n4 tablespoons soy sauce, divided\n\n\n4 tablespoons dry sherry, divided\n\n\n1 teaspoon salt, divided\n\n\n1 teaspoon ground black pepper, divided\n\n\n1 tablespoon vegetable oil\n\n\n1 large head cabbage, finely shredded\n\n\n¼ cup water\n\n\n1 teaspoon white sugar\n\n\n2 quarts vegetable oil for deep frying\n\n\n16  egg roll wrappers"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 medium onion, thinly sliced\n\n\n½ teaspoon dried minced garlic\n\n\n1 teaspoon ground ginger\n\n\n4 tablespoons soy sauce, divided\n\n\n4 tablespoons dry sherry, divided\n\n\n1 teaspoon salt, divided\n\n\n1 teaspoon ground black pepper, divided\n\n\n1 tablespoon vegetable oil\n\n\n1 large head cabbage, finely shredded\n\n\n¼ cup water\n\n\n1 teaspoon white sugar\n\n\n2 quarts vegetable oil for deep frying\n\n\n16  egg roll wrappers'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir ground beef in the hot skillet until browned and crumbly, 5 to 7 minutes. Drain and discard grease. Add onion, garlic, ginger, and 1/2 of each of the following ingredients: soy sauce, sherry, salt, and pepper. Sauté just until onion is tender, 4 to 5 minutes. Transfer to a bowl."},{"recipe_directions":"Heat 1 tablespoon oil in the same skillet over medium heat. Add cabbage, water, and sugar, plus remaining soy sauce, sherry, salt, and pepper. Cook and stir until cabbage is crisp-tender, about 5 minutes. Return beef mixture to the pan; cook and stir until well combined and heated through, 2 to 3 minutes. Remove from the heat."},{"recipe_directions":"Heat oil in a deep fryer or large saucepan to 350 degrees F (175 degrees C)."},{"recipe_directions":"While the oil is heating, lay one egg roll wrapper out like a diamond. Place approximately 1/4 cup filling across the center going from left to right. Moisten the top two edges with water. Fold the bottom corner up and over the filling, fold both sides in toward the center, and roll upwards to seal. Repeat to make remaining egg rolls."},{"recipe_directions":"Fry a few egg rolls at a time in the preheated oil until golden brown, 2 to 3 minutes per batch. Drain on paper towels and serve hot."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"},{"recipe_tags":"Egg Roll Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"267\nCalories\n\n\n16g \nFat\n\n\n22g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641321-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dUn-gtqmy1bJ58y1WBpZV4W2vdo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/25870-Daddys-Shrimp-Toast-4x3-248-63a7f6795e1846c1b46894aed40a1a73.jpg"
@@ -1961,59 +2194,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25870/daddys-shrimp-toast/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Daddy's Shrimp Toast</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh shrimp, peeled, deveined and finely minced\n\n\n½ medium yellow onion, minced\n\n\n½ cup finely chopped water chestnuts (Optional)\n\n\n½ cup finely chopped celery (Optional)\n\n\n1  green onion, finely chopped\n\n\n½ cup cooked crabmeat\n\n\n1 large egg, beaten\n\n\n1 ½ tablespoons chopped fresh parsley\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon minced garlic\n\n\n5 drops soy sauce\n\n\n  salt and ground black pepper to taste"},{"recipe_ingredients":"¼ cup soy sauce\n\n\n3 tablespoons chopped fresh parsley\n\n\n1 tablespoon water\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon white sugar\n\n\n¼ teaspoon garlic powder, or to taste"},{"recipe_ingredients":"2 cups oil for frying\n\n\n8 thick slices white bread"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh shrimp, peeled, deveined and finely minced\n\n\n½ medium yellow onion, minced\n\n\n½ cup finely chopped water chestnuts (Optional)\n\n\n½ cup finely chopped celery (Optional)\n\n\n1  green onion, finely chopped\n\n\n½ cup cooked crabmeat\n\n\n1 large egg, beaten\n\n\n1 ½ tablespoons chopped fresh parsley\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon minced garlic\n\n\n5 drops soy sauce\n\n\n  salt and ground black pepper to taste'}, {'recipe_ingredients': '¼ cup soy sauce\n\n\n3 tablespoons chopped fresh parsley\n\n\n1 tablespoon water\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon white sugar\n\n\n¼ teaspoon garlic powder, or to taste'}, {'recipe_ingredients': '2 cups oil for frying\n\n\n8 thick slices white bread'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Make the shrimp paste: Mix shrimp, onion, water chestnuts, celery, and green onion together in a mixing bowl. Stir in crabmeat, egg, parsley, sesame oil, garlic, soy sauce, salt, and pepper."},{"recipe_directions":"Make the dipping sauce: Whisk soy sauce, parsley, water, sesame oil, sugar, and garlic powder together in a small bowl."},{"recipe_directions":"Make the toast: Heat 1/2 inch oil in a large, heavy skillet over medium heat."},{"recipe_directions":"Spread each slice bread with a thick layer of shrimp paste, pressing gently so it sticks to bread."},{"recipe_directions":"Working in batches, fry bread, paste-side down, in hot oil until golden and shrimp is pink, 2 to 3 minutes. Flip carefully and cook until bread is golden brown, about 1 minute. Drain on paper towels."},{"recipe_directions":"Slice shrimp toasts diagonally and serve with dipping sauce."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Canapes and Crostini Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"666\nCalories\n\n\n59g \nFat\n\n\n18g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641327-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1899/world-cuisine/asian/chinese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ABARouMo-LEJHF6w4z9UyZwXA_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/903661-a2187c57b7634f46a8c15a9367503e85.jpg"
@@ -2026,42 +2255,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214464/chinese-chicken-wings/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Chinese Chicken Wings</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 10 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups soy sauce\n\n\n2 cups brown sugar\n\n\n2 tablespoons garlic powder\n\n\n5 pounds chicken wings, split and tips discarded"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups soy sauce\n\n\n2 cups brown sugar\n\n\n2 tablespoons garlic powder\n\n\n5 pounds chicken wings, split and tips discarded'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together soy sauce, brown sugar, and garlic powder in a saucepan over medium heat. Cook and stir until sugar has dissolved. Remove from heat and allow to cool."},{"recipe_directions":"Place chicken wings in a large bowl. Pour soy sauce mixture over wings and toss to coat evenly. Cover the bowl with plastic wrap. Allow chicken to marinate in the refrigerator for 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Pour chicken wings and marinade into a 9x13-inch baking dish. Cover the baking dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until thoroughly hot, about 45 minutes. Remove foil and bake for 15 more minutes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"256\nCalories\n\n\n9g \nFat\n\n\n28g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>